--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43806,6 +43806,41 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>8800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43841,6 +43841,43 @@
         <v>8800</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43878,6 +43878,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43915,6 +43915,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43952,6 +43952,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43989,6 +43989,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44026,6 +44026,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44063,6 +44063,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44100,6 +44100,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44137,6 +44137,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44174,6 +44174,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44211,6 +44211,43 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44248,6 +44248,80 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44322,6 +44322,80 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44396,6 +44396,43 @@
         </is>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44433,6 +44433,43 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44470,6 +44470,43 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44507,6 +44507,41 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44542,6 +44542,80 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44616,6 +44616,43 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1237" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44653,6 +44653,41 @@
         </is>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2062"/>
+  <dimension ref="A1:I2063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73528,6 +73528,41 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="2063">
+      <c r="A2063" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2063" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2063" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2063" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2063" t="n">
+        <v>43500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2063"/>
+  <dimension ref="A1:I2064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73563,6 +73563,43 @@
         <v>43500</v>
       </c>
     </row>
+    <row r="2064">
+      <c r="A2064" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2064" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2064" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2064" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2064" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2064" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2064"/>
+  <dimension ref="A1:I2065"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73600,6 +73600,41 @@
         </is>
       </c>
     </row>
+    <row r="2065">
+      <c r="A2065" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2065" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2065" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2065" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2065" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2065" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2065"/>
+  <dimension ref="A1:I2066"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73635,6 +73635,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2066">
+      <c r="A2066" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2066" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2066" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2066" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2066" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2066" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2066"/>
+  <dimension ref="A1:I2067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73672,6 +73672,43 @@
         </is>
       </c>
     </row>
+    <row r="2067">
+      <c r="A2067" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2067" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2067" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2067" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2067" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2067" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2067"/>
+  <dimension ref="A1:I2068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73709,6 +73709,43 @@
         </is>
       </c>
     </row>
+    <row r="2068">
+      <c r="A2068" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2068" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2068" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2068" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2068" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2068" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2068"/>
+  <dimension ref="A1:I2069"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73746,6 +73746,43 @@
         </is>
       </c>
     </row>
+    <row r="2069">
+      <c r="A2069" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2069" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2069" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2069" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2069" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2069" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2069"/>
+  <dimension ref="A1:I2070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73783,6 +73783,43 @@
         </is>
       </c>
     </row>
+    <row r="2070">
+      <c r="A2070" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2070" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2070" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2070" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2070" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2070" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2070"/>
+  <dimension ref="A1:I2071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73820,6 +73820,43 @@
         </is>
       </c>
     </row>
+    <row r="2071">
+      <c r="A2071" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2071" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2071" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2071" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2071" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2071" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2071"/>
+  <dimension ref="A1:I2072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73857,6 +73857,43 @@
         </is>
       </c>
     </row>
+    <row r="2072">
+      <c r="A2072" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2072" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2072" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2072" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2072" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2072" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2072"/>
+  <dimension ref="A1:I2073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73894,6 +73894,43 @@
         </is>
       </c>
     </row>
+    <row r="2073">
+      <c r="A2073" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2073" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2073" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2073" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2073" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2073"/>
+  <dimension ref="A1:I2074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73931,6 +73931,43 @@
         </is>
       </c>
     </row>
+    <row r="2074">
+      <c r="A2074" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2074" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2074" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2074" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2074" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2074"/>
+  <dimension ref="A1:I2075"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73968,6 +73968,43 @@
         </is>
       </c>
     </row>
+    <row r="2075">
+      <c r="A2075" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2075" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2075" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2075" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2075" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2075"/>
+  <dimension ref="A1:I2076"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74005,6 +74005,43 @@
         </is>
       </c>
     </row>
+    <row r="2076">
+      <c r="A2076" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2076" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2076" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2076" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2076" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2076" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7199.xlsx
+++ b/data/7199.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2076"/>
+  <dimension ref="A1:I2077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74042,6 +74042,43 @@
         </is>
       </c>
     </row>
+    <row r="2077">
+      <c r="A2077" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>KEINHIN</t>
+        </is>
+      </c>
+      <c r="E2077" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2077" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2077" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H2077" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I2077" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
